--- a/LH_TESTCASES/LH_TC_PUBLISHARTICLE.xlsx
+++ b/LH_TESTCASES/LH_TC_PUBLISHARTICLE.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="114">
   <si>
     <t>Project name</t>
   </si>
@@ -338,10 +338,10 @@
     <t>The system display a red-colored inline error message below the title field "Title is required"</t>
   </si>
   <si>
-    <t>LH-SRS-PUBART-011</t>
-  </si>
-  <si>
-    <t>Allow form submission when the article body is under 1000 words</t>
+    <t>LH-SRS-PUBART-012</t>
+  </si>
+  <si>
+    <t>Validate form submission when the article body is under 1000 words</t>
   </si>
   <si>
     <t>Here</t>
@@ -350,13 +350,13 @@
     <t>LH-TC-PUBART-015</t>
   </si>
   <si>
-    <t>Allow form submission when the article body is equal to 1000 words</t>
+    <t>Validate form submission when the article body is equal to 1000 words</t>
   </si>
   <si>
     <t>LH-TC-PUBART-016</t>
   </si>
   <si>
-    <t>Allow form submission when the article body is over 1000 words</t>
+    <t>Validate form submission when the article body is over 1000 words</t>
   </si>
   <si>
     <t>The system display an inline error message indicating the word limit has been exceeded</t>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t>Separated and modified Publish Article Test cases according to the latest updated SRS</t>
+  </si>
+  <si>
+    <t>v2.1</t>
+  </si>
+  <si>
+    <t>fixed a mistake in naming convention</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,13 +524,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -652,7 +651,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,12 +672,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -722,12 +715,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,16 +1096,16 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1127,7 +1114,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1136,37 +1126,37 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1178,13 +1168,16 @@
     <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1193,10 +1186,10 @@
     <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1205,10 +1198,10 @@
     <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1217,10 +1210,10 @@
     <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1229,10 +1222,10 @@
     <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1241,13 +1234,7 @@
     <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1331,7 +1318,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1769,15 +1756,15 @@
   <sheetPr/>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:J25"/>
+    <sheetView zoomScale="79" zoomScaleNormal="79" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="31" style="16" customWidth="1"/>
     <col min="2" max="2" width="28" style="17" customWidth="1"/>
-    <col min="3" max="3" width="56.2857142857143" style="17" customWidth="1"/>
+    <col min="3" max="3" width="59.8571428571429" style="17" customWidth="1"/>
     <col min="4" max="4" width="57.7333333333333" style="18" customWidth="1"/>
     <col min="5" max="5" width="71.4285714285714" style="19" customWidth="1"/>
     <col min="6" max="6" width="37.9619047619048" style="20" customWidth="1"/>
@@ -2384,7 +2371,7 @@
       <c r="I26" s="55"/>
       <c r="J26" s="45"/>
     </row>
-    <row r="27" ht="15.75" spans="1:10">
+    <row r="27" spans="1:10">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="38"/>
@@ -2526,7 +2513,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9 I10 I11 I12 I13 I20 I21 I24 I25 I14:I19 I22:I23 I26:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I1048576">
       <formula1>"Pass, Fail, Blocked, N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2547,7 +2534,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -2629,11 +2616,20 @@
         <v>45788</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+    <row r="6" s="3" customFormat="1" ht="21" spans="1:4">
+      <c r="A6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="10">
+        <f>DATE(2025,5,11)</f>
+        <v>45788</v>
+      </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="15.75" spans="1:4">
       <c r="A7" s="11"/>

--- a/LH_TESTCASES/LH_TC_PUBLISHARTICLE.xlsx
+++ b/LH_TESTCASES/LH_TC_PUBLISHARTICLE.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mego\Desktop\Group-3-Learning-hub-dev (5)\Group-3-Learning-hub-dev\LH_TESTCASES\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA90C3C-C287-4310-9FA8-B2C6A54156A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="LH_TC_FEATURENAME" sheetId="1" r:id="rId1"/>
+    <sheet name="LH_TC_PUBLISHARTICLE" sheetId="1" r:id="rId1"/>
     <sheet name="VESRION HISTORY" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LH_TC_FEATURENAME!$A$8:$I$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LH_TC_PUBLISHARTICLE!$A$8:$I$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="145">
   <si>
     <t>Project name</t>
   </si>
@@ -115,6 +109,9 @@
   </si>
   <si>
     <t>Access granted</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>High</t>
@@ -309,6 +306,9 @@
     <t>The publish button is not activated</t>
   </si>
   <si>
+    <t>The publish button is not activated with error message</t>
+  </si>
+  <si>
     <t>LH-TC-PUBART-012</t>
   </si>
   <si>
@@ -365,6 +365,86 @@
     <t>The system display an inline error message indicating the word limit has been exceeded</t>
   </si>
   <si>
+    <t>LH-SRS-PUBART-013</t>
+  </si>
+  <si>
+    <t>LH-TC-PUBART-017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the system accepts titles with fewer than 40 characters
+</t>
+  </si>
+  <si>
+    <t>Title: "We are just testing"</t>
+  </si>
+  <si>
+    <t>The system should allow input of a title with a length of less than 40 characters</t>
+  </si>
+  <si>
+    <t>The system successfully allow input of a title with a length of less than 40 characters</t>
+  </si>
+  <si>
+    <t>LH-TC-PUBART-018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the system accepts titles with the exact length of 40 characters
+</t>
+  </si>
+  <si>
+    <t>Title: "Hi there, we are just testing the length"</t>
+  </si>
+  <si>
+    <t>The system uploads the video successfully without any issues</t>
+  </si>
+  <si>
+    <t>The system uploads the video successfully</t>
+  </si>
+  <si>
+    <t>LH-TC-PUBART-019</t>
+  </si>
+  <si>
+    <t>Verify that the system rejects titles exceeding 40 characters</t>
+  </si>
+  <si>
+    <t>Title: "We are just testing the new title constraints"</t>
+  </si>
+  <si>
+    <t>The system display an error message: "Title too long" and disables the publish button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An error message appears " Title too long" and publish button is disabled </t>
+  </si>
+  <si>
+    <t>LH-SRS-PUBLART-014</t>
+  </si>
+  <si>
+    <t>LH-TC-PUBART-020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system collapses multiple consecutive spaces into a single space in the title</t>
+  </si>
+  <si>
+    <t>Title: "Learning                   Hub"</t>
+  </si>
+  <si>
+    <t>The system uploads the video successfully without any issues or extra spaces</t>
+  </si>
+  <si>
+    <t>The system uploads the video successfully without any extra spaces</t>
+  </si>
+  <si>
+    <t>LH-TC-PUBART-021</t>
+  </si>
+  <si>
+    <t>Verify that the system rejects a title consisting only of spaces</t>
+  </si>
+  <si>
+    <t>Title: "                             "</t>
+  </si>
+  <si>
+    <t>Error message displayed: 'Title is required'</t>
+  </si>
+  <si>
     <t>Version number</t>
   </si>
   <si>
@@ -411,27 +491,30 @@
     <t>fixed a mistake in naming convention</t>
   </si>
   <si>
-    <t>The publish button is not activated with error message</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>v2.2</t>
   </si>
   <si>
     <t>Executed testcases</t>
+  </si>
+  <si>
+    <t>v2.3</t>
+  </si>
+  <si>
+    <t>Added new TCs according to change request</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,81 +526,81 @@
       <sz val="20"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF404040"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF404040"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -525,37 +608,167 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,18 +777,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="3" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -707,39 +1100,262 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color theme="0"/>
+        <color rgb="FFB2B2B2"/>
       </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color theme="0"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -749,7 +1365,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -769,6 +1386,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -778,6 +1404,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -787,7 +1422,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -802,6 +1437,9 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -820,78 +1458,90 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -913,12 +1563,23 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -927,9 +1588,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1216,839 +1874,1071 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="31" style="12" customWidth="1"/>
-    <col min="2" max="2" width="28" style="13" customWidth="1"/>
-    <col min="3" max="3" width="59.88671875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="57.77734375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="71.44140625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="38" style="16" customWidth="1"/>
-    <col min="7" max="7" width="55.5546875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="17"/>
-    <col min="10" max="10" width="16.88671875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="13"/>
+    <col min="1" max="1" width="31" style="14" customWidth="1"/>
+    <col min="2" max="2" width="28" style="15" customWidth="1"/>
+    <col min="3" max="3" width="59.8857142857143" style="15" customWidth="1"/>
+    <col min="4" max="4" width="57.7809523809524" style="16" customWidth="1"/>
+    <col min="5" max="5" width="71.4380952380952" style="17" customWidth="1"/>
+    <col min="6" max="6" width="38" style="18" customWidth="1"/>
+    <col min="7" max="7" width="55.552380952381" style="15" customWidth="1"/>
+    <col min="8" max="8" width="28.3333333333333" style="15" customWidth="1"/>
+    <col min="9" max="9" width="25.6666666666667" style="19"/>
+    <col min="10" max="10" width="16.8857142857143" style="18" customWidth="1"/>
+    <col min="11" max="11" width="21.1047619047619" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="9.1047619047619" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="9" customFormat="1" ht="66.75" customHeight="1" spans="1:10">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="21" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="21" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="25.8">
-      <c r="A8" s="9" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="9:9">
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="9:9">
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="9:9">
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" s="10" customFormat="1" ht="26.25" spans="1:10">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="10" customFormat="1" ht="46.8">
-      <c r="A9" s="45" t="s">
+    <row r="9" s="11" customFormat="1" ht="47.25" spans="1:10">
+      <c r="A9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="47.25" spans="1:10">
+      <c r="A10" s="38"/>
+      <c r="B10" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" ht="31.5" spans="1:10">
+      <c r="A11" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" ht="31.5" spans="1:10">
+      <c r="A12" s="45"/>
+      <c r="B12" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="63" spans="1:10">
+      <c r="A13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="63" spans="1:10">
+      <c r="A14" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="87" customHeight="1" spans="1:10">
+      <c r="A15" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" ht="78.75" spans="1:10">
+      <c r="A16" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" ht="94.5" spans="1:10">
+      <c r="A17" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" ht="94.5" spans="1:10">
+      <c r="A18" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" ht="94.5" spans="1:10">
+      <c r="A19" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" ht="94.5" spans="1:10">
+      <c r="A20" s="47"/>
+      <c r="B20" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" ht="94.5" spans="1:10">
+      <c r="A21" s="38"/>
+      <c r="B21" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" ht="94.5" spans="1:10">
+      <c r="A22" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" ht="94.5" spans="1:10">
+      <c r="A23" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" s="12" customFormat="1" ht="94.5" spans="1:10">
+      <c r="A24" s="47"/>
+      <c r="B24" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" ht="94.5" spans="1:10">
+      <c r="A25" s="38"/>
+      <c r="B25" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" s="13" customFormat="1" ht="94.5" spans="1:10">
+      <c r="A26" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" s="13" customFormat="1" ht="94.5" spans="1:10">
+      <c r="A27" s="51"/>
+      <c r="B27" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" s="13" customFormat="1" ht="94.5" spans="1:10">
+      <c r="A28" s="51"/>
+      <c r="B28" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="H28" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="54" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" customFormat="1" ht="46.8">
-      <c r="A10" s="47"/>
-      <c r="B10" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" s="39" t="s">
+      <c r="J28" s="55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" s="13" customFormat="1" ht="94.5" spans="1:10">
+      <c r="A29" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="54" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="31.2">
-      <c r="A11" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="32" t="s">
+      <c r="J29" s="55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" s="13" customFormat="1" ht="94.5" spans="1:10">
+      <c r="A30" s="52"/>
+      <c r="B30" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="31.2">
-      <c r="A12" s="44"/>
-      <c r="B12" s="31" t="s">
+      <c r="E30" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="62.4">
-      <c r="A13" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="62.4">
-      <c r="A14" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="87" customHeight="1">
-      <c r="A15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="78">
-      <c r="A16" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="93.6">
-      <c r="A17" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="93.6">
-      <c r="A18" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="93.6">
-      <c r="A19" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="93.6">
-      <c r="A20" s="46"/>
-      <c r="B20" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="93.6">
-      <c r="A21" s="47"/>
-      <c r="B21" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="93.6">
-      <c r="A22" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="93.6">
-      <c r="A23" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="11" customFormat="1" ht="93.6">
-      <c r="A24" s="46"/>
-      <c r="B24" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="93.6">
-      <c r="A25" s="47"/>
-      <c r="B25" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="36"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="34"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="27"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="I28" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:I27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="8">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A23:A25"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A8:I27" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
+  <mergeCells count="10">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:I1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
+  <conditionalFormatting sqref="J10">
+    <cfRule type="containsText" dxfId="0" priority="34" operator="between" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="35" operator="between" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="1" priority="25" operator="between" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="24" operator="between" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="23" operator="between" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",I26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="22" operator="between" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",I26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="21" operator="between" text="not executed">
+      <formula>NOT(ISERROR(SEARCH("not executed",I26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="1" priority="20" operator="between" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="19" operator="between" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="18" operator="between" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",I27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="17" operator="between" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",I27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="16" operator="between" text="not executed">
+      <formula>NOT(ISERROR(SEARCH("not executed",I27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="1" priority="15" operator="between" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="14" operator="between" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="13" operator="between" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",I28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="12" operator="between" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",I28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="11" operator="between" text="not executed">
+      <formula>NOT(ISERROR(SEARCH("not executed",I28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="between" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="9" operator="between" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="8" operator="between" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",I29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="7" operator="between" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",I29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="between" text="not executed">
+      <formula>NOT(ISERROR(SEARCH("not executed",I29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="between" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="between" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",I30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="between" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",I30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="1" operator="between" text="not executed">
+      <formula>NOT(ISERROR(SEARCH("not executed",I30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I25 I31:I1048576">
+    <cfRule type="containsText" dxfId="0" priority="26" operator="between" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="1" priority="27" operator="between" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I26 I27 I28 I29 I30 I9:I25 I31:I1048576">
       <formula1>"Pass, Fail, Blocked, N/A"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F23" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F24" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F23" r:id="rId1" display="Here"/>
+    <hyperlink ref="F24" r:id="rId2" display="Here"/>
+    <hyperlink ref="F25" r:id="rId3" display="Here"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="93.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="31.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="93.552380952381" customWidth="1"/>
+    <col min="4" max="4" width="15.7809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="25.8">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="21">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="21" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D2" s="6">
         <v>45768</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42">
+    <row r="3" ht="42" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D3" s="6">
         <v>45769</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21">
+    <row r="4" ht="21" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D4" s="6">
         <v>45773</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21">
+    <row r="5" ht="21" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D5" s="6">
         <f>DATE(2025,5,11)</f>
         <v>45788</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21">
+    <row r="6" ht="21" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D6" s="6">
         <f>DATE(2025,5,11)</f>
         <v>45788</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" ht="21">
+    <row r="7" s="3" customFormat="1" ht="21.75" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="D7" s="6">
         <v>45793</v>
       </c>
     </row>
+    <row r="8" ht="21" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45794</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>